--- a/downloads/Template_output_plgsat.xlsx
+++ b/downloads/Template_output_plgsat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzbo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/Streamlit_Meter/Streamlit_Meter/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33011EC5-74FA-1943-A5CB-CE4292013943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{33011EC5-74FA-1943-A5CB-CE4292013943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B996AD-030E-1747-B3C9-E2A23F60821B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
     <t>Plag-sat ?</t>
   </si>
   <si>
-    <t>In polygon?</t>
+    <t>H2O</t>
   </si>
 </sst>
 </file>
@@ -365,13 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,11 +382,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -733,21 +730,21 @@
   <dimension ref="A1:L644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="10.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="4" customWidth="1"/>
     <col min="13" max="15" width="10.83203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
@@ -759,47 +756,47 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="10"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -812,7 +809,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -825,7 +822,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -838,7 +835,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="7"/>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -851,7 +848,7 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -864,7 +861,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -877,7 +874,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="7"/>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -890,7 +887,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -903,7 +900,7 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -916,7 +913,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -929,7 +926,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="K12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -942,7 +939,7 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
       <c r="K13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -955,7 +952,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
       <c r="K14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -968,7 +965,7 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
       <c r="K15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -981,7 +978,7 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -994,7 +991,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="8"/>
+      <c r="J17" s="7"/>
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1007,7 +1004,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1020,7 +1017,7 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1033,7 +1030,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="8"/>
+      <c r="J20" s="7"/>
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1046,7 +1043,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="8"/>
+      <c r="J21" s="7"/>
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1059,7 +1056,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1072,7 +1069,7 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="7"/>
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1085,7 +1082,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="8"/>
+      <c r="J24" s="7"/>
       <c r="K24"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1098,7 +1095,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="8"/>
+      <c r="J25" s="7"/>
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1111,7 +1108,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="7"/>
       <c r="K26"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1124,7 +1121,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
       <c r="K27"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1137,7 +1134,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="8"/>
+      <c r="J28" s="7"/>
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1150,7 +1147,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="7"/>
       <c r="K29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1163,7 +1160,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="7"/>
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1176,7 +1173,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" s="8"/>
+      <c r="J31" s="7"/>
       <c r="K31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1189,7 +1186,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32" s="8"/>
+      <c r="J32" s="7"/>
       <c r="K32"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1202,7 +1199,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="7"/>
       <c r="K33"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1215,7 +1212,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="8"/>
+      <c r="J34" s="7"/>
       <c r="K34"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1228,7 +1225,7 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="7"/>
       <c r="K35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1241,7 +1238,7 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="7"/>
       <c r="K36"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1254,7 +1251,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" s="8"/>
+      <c r="J37" s="7"/>
       <c r="K37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1267,7 +1264,7 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="7"/>
       <c r="K38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1280,7 +1277,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="7"/>
       <c r="K39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1293,7 +1290,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="7"/>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1306,7 +1303,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="7"/>
       <c r="K41"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1319,7 +1316,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="7"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1332,7 +1329,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="7"/>
       <c r="K43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1345,7 +1342,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="8"/>
+      <c r="J44" s="7"/>
       <c r="K44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1358,7 +1355,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" s="8"/>
+      <c r="J45" s="7"/>
       <c r="K45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1371,7 +1368,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="7"/>
       <c r="K46"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1384,7 +1381,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="7"/>
       <c r="K47"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1397,7 +1394,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="7"/>
       <c r="K48"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -1410,7 +1407,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-      <c r="J49" s="8"/>
+      <c r="J49" s="7"/>
       <c r="K49"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -1423,7 +1420,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="7"/>
       <c r="K50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -1436,7 +1433,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" s="8"/>
+      <c r="J51" s="7"/>
       <c r="K51"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -1449,7 +1446,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-      <c r="J52" s="8"/>
+      <c r="J52" s="7"/>
       <c r="K52"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -1462,7 +1459,7 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="7"/>
       <c r="K53"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -1475,7 +1472,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="7"/>
       <c r="K54"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -1488,7 +1485,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55" s="8"/>
+      <c r="J55" s="7"/>
       <c r="K55"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -1501,7 +1498,7 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-      <c r="J56" s="8"/>
+      <c r="J56" s="7"/>
       <c r="K56"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -1514,7 +1511,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="7"/>
       <c r="K57"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -1527,7 +1524,7 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" s="8"/>
+      <c r="J58" s="7"/>
       <c r="K58"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -1540,7 +1537,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="7"/>
       <c r="K59"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -1553,7 +1550,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="7"/>
       <c r="K60"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -1566,7 +1563,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-      <c r="J61" s="8"/>
+      <c r="J61" s="7"/>
       <c r="K61"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -1579,7 +1576,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="7"/>
       <c r="K62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -1592,7 +1589,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63" s="8"/>
+      <c r="J63" s="7"/>
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-      <c r="J64" s="8"/>
+      <c r="J64" s="7"/>
       <c r="K64"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -1618,7 +1615,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="7"/>
       <c r="K65"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -1631,7 +1628,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" s="8"/>
+      <c r="J66" s="7"/>
       <c r="K66"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -1644,7 +1641,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" s="8"/>
+      <c r="J67" s="7"/>
       <c r="K67"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -1657,7 +1654,7 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" s="8"/>
+      <c r="J68" s="7"/>
       <c r="K68"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -1670,7 +1667,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="7"/>
       <c r="K69"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -1683,7 +1680,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" s="8"/>
+      <c r="J70" s="7"/>
       <c r="K70"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -1696,7 +1693,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="8"/>
+      <c r="J71" s="7"/>
       <c r="K71"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">

--- a/downloads/Template_output_plgsat.xlsx
+++ b/downloads/Template_output_plgsat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/Streamlit_Meter/Streamlit_Meter/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{33011EC5-74FA-1943-A5CB-CE4292013943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B996AD-030E-1747-B3C9-E2A23F60821B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{33011EC5-74FA-1943-A5CB-CE4292013943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF494266-4601-CE43-81D6-AD909D1A75F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="5840" windowWidth="29920" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,206 +37,38 @@
     <t>CaO</t>
   </si>
   <si>
-    <r>
-      <t>SiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Al</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fe</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Na</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
     <t>Plag-sat ?</t>
   </si>
   <si>
     <t>H2O</t>
+  </si>
+  <si>
+    <t>SiO2</t>
+  </si>
+  <si>
+    <t>TiO2</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>Fe2O3T</t>
+  </si>
+  <si>
+    <t>Na2O</t>
+  </si>
+  <si>
+    <t>K2O</t>
+  </si>
+  <si>
+    <t>P2O5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,13 +91,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -408,6 +233,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,7 +559,7 @@
   <dimension ref="A1:L644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,40 +592,40 @@
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
